--- a/biology/Zoologie/Earias_biplaga/Earias_biplaga.xlsx
+++ b/biology/Zoologie/Earias_biplaga/Earias_biplaga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Earias biplaga est une espèce d'insectes de l'ordre des lépidoptères (papillons), de la famille des Nolidae, originaire d'Afrique.
-Les adultes ont une longueur d'environ 10–12 mm et une envergure de 20–24 mm. Leurs chenilles se nourrissent de Fabaceae et Malvaceae, cette espèce est aussi considérée comme une peste pour le coton et le cacao[1].
+Les adultes ont une longueur d'environ 10–12 mm et une envergure de 20–24 mm. Leurs chenilles se nourrissent de Fabaceae et Malvaceae, cette espèce est aussi considérée comme une peste pour le coton et le cacao.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition d'Earias biplaga s'étend sur la quasi-totalité de l'Afrique subsaharienne, y compris les îles de l'Atlantique et de l'océan Indien[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition d'Earias biplaga s'étend sur la quasi-totalité de l'Afrique subsaharienne, y compris les îles de l'Atlantique et de l'océan Indien.
 Elle comprend notamment les pays suivants :
-Afrique du Sud, Angola, Bénin, Burundi, République centrafricaine, Tchad, Congo-Kinshasa, Côte d'Ivoire, Éthiopie, Ghana, Guinée, Haute-Volta, Kenya, Madagascar, Malawi, Mali, Maurice, Mozambique, Niger, Nigeria, Ouganda, Ruanda, Sao Tomé-et-Principe, Sierra Leone, Somalie, Soudan, Tanzanie, Togo, Zambie, Zimbabwe[3].
+Afrique du Sud, Angola, Bénin, Burundi, République centrafricaine, Tchad, Congo-Kinshasa, Côte d'Ivoire, Éthiopie, Ghana, Guinée, Haute-Volta, Kenya, Madagascar, Malawi, Mali, Maurice, Mozambique, Niger, Nigeria, Ouganda, Ruanda, Sao Tomé-et-Principe, Sierra Leone, Somalie, Soudan, Tanzanie, Togo, Zambie, Zimbabwe.
 </t>
         </is>
       </c>
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
